--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 8 (25, 44, 40, 41, 43)/MDD 2 (11, 12, 53, 29, 55)/ANN_128nodes_Uniform0.05Virtual_Control(25, 44, 40, 41, 43)_MDD(11, 12, 53, 29, 55)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 8 (25, 44, 40, 41, 43)/MDD 2 (11, 12, 53, 29, 55)/ANN_128nodes_Uniform0.05Virtual_Control(25, 44, 40, 41, 43)_MDD(11, 12, 53, 29, 55)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1.615932965451327E-10</v>
+        <v>4.077478427296493E-11</v>
       </c>
       <c r="E2">
-        <v>1.615932965451327E-10</v>
+        <v>4.077478427296493E-11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.418086741012888E-14</v>
+        <v>1.800806493465486E-58</v>
       </c>
       <c r="E3">
-        <v>1.418086741012888E-14</v>
+        <v>1.800806493465486E-58</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>4.998010179241086E-20</v>
+        <v>3.612050650184042E-28</v>
       </c>
       <c r="E4">
-        <v>4.998010179241086E-20</v>
+        <v>3.612050650184042E-28</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.248512456519819E-43</v>
+        <v>7.6179771115205E-18</v>
       </c>
       <c r="E5">
-        <v>2.248512456519819E-43</v>
+        <v>7.6179771115205E-18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9999999652527768</v>
+        <v>0.9999999997137472</v>
       </c>
       <c r="E6">
-        <v>0.9999999652527768</v>
+        <v>0.9999999997137472</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999983140244481</v>
+        <v>0.9999999997451001</v>
       </c>
       <c r="E8">
-        <v>1.685975551946051E-06</v>
+        <v>2.548998789819734E-10</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.757316805455195E-09</v>
+        <v>3.26597792734769E-18</v>
       </c>
       <c r="E10">
-        <v>0.9999999972426832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.010336636458602E-73</v>
+        <v>1.268111908755485E-90</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>20.31794166564941</v>
+        <v>26.9232234954834</v>
       </c>
       <c r="G11">
         <v>0.7</v>
